--- a/Excel Project Files/customer_data.xlsx
+++ b/Excel Project Files/customer_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1_Courses_Ready\CSI 357\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project\Server-Side-Project\Excel Project Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9A765C6-0EDB-4486-9244-952C89EF3271}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EC0B8D-4E4A-4606-A1B8-F5C57AA409D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{E702B18A-E539-4B3B-872E-9C4A8111F8E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="8340" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{E702B18A-E539-4B3B-872E-9C4A8111F8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">address!$A$1:$A$132</definedName>
     <definedName name="ExternalData_1" localSheetId="2" hidden="1">address_type!$A$1:$A$4</definedName>
-    <definedName name="ExternalData_1" localSheetId="3" hidden="1">contact!$A$1:$A$6</definedName>
     <definedName name="ExternalData_1" localSheetId="0" hidden="1">customer!$A$1:$A$63</definedName>
-    <definedName name="ExternalData_1" localSheetId="4" hidden="1">CustomerAddressType!$A$1:$A$142</definedName>
-    <definedName name="ExternalData_1" localSheetId="5" hidden="1">CustomerContact!$A$1:$A$125</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -54,17 +51,8 @@
   <connection id="2" xr16:uid="{21F33696-C01E-4B6B-812C-1134F4A9B1CE}" keepAlive="1" name="MySQL.customers.addresstype" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=127.0.0.1;Port=3306;Database=customers;User=root;Option=3;" command="SELECT * FROM customers.addresstype" commandType="4"/>
   </connection>
-  <connection id="3" xr16:uid="{E9BC28FC-8441-43A3-867B-9238529D555A}" keepAlive="1" name="MySQL.customers.contact" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
-    <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=127.0.0.1;Port=3306;Database=customers;User=root;Option=3;" command="SELECT * FROM customers.contact" commandType="4"/>
-  </connection>
-  <connection id="4" xr16:uid="{65D58A6F-9D41-4D15-990E-C9F3E774CBBD}" keepAlive="1" name="MySQL.customers.customer" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
+  <connection id="3" xr16:uid="{65D58A6F-9D41-4D15-990E-C9F3E774CBBD}" keepAlive="1" name="MySQL.customers.customer" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
     <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=127.0.0.1;Port=3306;Database=customers;User=root;Option=3;" command="SELECT * FROM customers.customer" commandType="4"/>
-  </connection>
-  <connection id="5" xr16:uid="{1926800B-FCCC-4F20-8463-F004C5348792}" keepAlive="1" name="MySQL.customers.customeraddresstype" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
-    <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=127.0.0.1;Port=3306;Database=customers;User=root;Option=3;" command="SELECT * FROM customers.customeraddresstype" commandType="4"/>
-  </connection>
-  <connection id="6" xr16:uid="{E25F8B49-54FF-424E-B65B-2037D21F9787}" keepAlive="1" name="MySQL.customers.customercontact" description="Created by MySQL for Excel, for its internal use only." type="5" refreshedVersion="0" saveData="1">
-    <dbPr connection="Driver={MySQL ODBC 5.3 ANSI Driver};Provider=MSDASQL;Server=127.0.0.1;Port=3306;Database=customers;User=root;Option=3;" command="SELECT * FROM customers.customercontact" commandType="4"/>
   </connection>
 </connections>
 </file>
@@ -1999,7 +1987,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="4" xr16:uid="{483CAD37-5AA5-4609-ABB4-83A26FCF49AB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="3" xr16:uid="{483CAD37-5AA5-4609-ABB4-83A26FCF49AB}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="4" unboundColumnsRight="2">
     <queryTableFields count="3">
       <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
@@ -2030,41 +2018,6 @@
     <queryTableFields count="2">
       <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
       <queryTableField id="2" dataBound="0" tableColumnId="2"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="3" xr16:uid="{E49642C5-93AD-43C2-89F0-25953054F37C}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="3" unboundColumnsRight="1">
-    <queryTableFields count="2">
-      <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
-      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="5" xr16:uid="{37C688A8-5D2C-4B25-ACB1-6A25386B7347}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4" unboundColumnsRight="2">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
-      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
-      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
-    </queryTableFields>
-  </queryTableRefresh>
-</queryTable>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" backgroundRefresh="0" intermediate="1" connectionId="6" xr16:uid="{D4609EC3-EE48-47C2-BBD5-5BAA8F3D682B}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
-  <queryTableRefresh nextId="4" unboundColumnsRight="2">
-    <queryTableFields count="3">
-      <queryTableField id="1" name="ExternalData_1: Getting Data ..." tableColumnId="1"/>
-      <queryTableField id="2" dataBound="0" tableColumnId="2"/>
-      <queryTableField id="3" dataBound="0" tableColumnId="3"/>
     </queryTableFields>
   </queryTableRefresh>
 </queryTable>
@@ -2108,44 +2061,44 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FC405397-F99F-4D2C-B513-F8252B522C76}" name="customers.contact" displayName="customers.contact" comment="1f90c7d7-51a5-45c4-9b0d-cad9b9f0f52a" ref="A1:B6" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{FC405397-F99F-4D2C-B513-F8252B522C76}" name="customers.contact" displayName="customers.contact" comment="1f90c7d7-51a5-45c4-9b0d-cad9b9f0f52a" ref="A1:B6" totalsRowShown="0">
   <autoFilter ref="A1:B6" xr:uid="{FC405397-F99F-4D2C-B513-F8252B522C76}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{CA1C77BA-EE0C-495B-9A05-31E55F76B2E8}" uniqueName="1" name="contact_id" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{2A61E811-8CB4-4774-B79C-9E546209641E}" uniqueName="2" name="contact_type" queryTableFieldId="2" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{CA1C77BA-EE0C-495B-9A05-31E55F76B2E8}" name="contact_id"/>
+    <tableColumn id="2" xr3:uid="{2A61E811-8CB4-4774-B79C-9E546209641E}" name="contact_type" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{057E342B-9261-4AEE-AB5C-13E46B908307}" name="customers.customeraddresstype" displayName="customers.customeraddresstype" comment="d3621a84-a5ed-4bb1-ab1c-84da7087ff1f" ref="A1:C142" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{057E342B-9261-4AEE-AB5C-13E46B908307}" name="customers.customeraddresstype" displayName="customers.customeraddresstype" comment="d3621a84-a5ed-4bb1-ab1c-84da7087ff1f" ref="A1:C142" totalsRowShown="0">
   <autoFilter ref="A1:C142" xr:uid="{057E342B-9261-4AEE-AB5C-13E46B908307}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{5B73888E-2C03-42C1-85A8-2CD9BCBC2D49}" uniqueName="1" name="cid" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{7746D226-6104-4FBC-A55F-5936B5213E42}" uniqueName="2" name="add_id" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{BA86EFA1-4A7F-43FE-B038-56B8BDD32095}" uniqueName="3" name="add_type_id" queryTableFieldId="3"/>
+    <tableColumn id="1" xr3:uid="{5B73888E-2C03-42C1-85A8-2CD9BCBC2D49}" name="cid"/>
+    <tableColumn id="2" xr3:uid="{7746D226-6104-4FBC-A55F-5936B5213E42}" name="add_id"/>
+    <tableColumn id="3" xr3:uid="{BA86EFA1-4A7F-43FE-B038-56B8BDD32095}" name="add_type_id"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EFCA2D6E-E91F-41FB-B377-676C982CF9B6}" name="customers.customercontact" displayName="customers.customercontact" comment="fd905af2-afeb-400a-8ed0-8a13e8b71bf6" ref="A1:C125" tableType="queryTable" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{EFCA2D6E-E91F-41FB-B377-676C982CF9B6}" name="customers.customercontact" displayName="customers.customercontact" comment="fd905af2-afeb-400a-8ed0-8a13e8b71bf6" ref="A1:C125" totalsRowShown="0">
   <autoFilter ref="A1:C125" xr:uid="{EFCA2D6E-E91F-41FB-B377-676C982CF9B6}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A11EA523-3863-4270-97D5-15AF8B68BA37}" uniqueName="1" name="cid" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{4DA00975-3D71-433F-8683-8E8E476B3365}" uniqueName="2" name="contact_id" queryTableFieldId="2"/>
-    <tableColumn id="3" xr3:uid="{9D6CCDB5-9ECC-4CA4-B082-1573C6060982}" uniqueName="3" name="contact" queryTableFieldId="3" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A11EA523-3863-4270-97D5-15AF8B68BA37}" name="cid"/>
+    <tableColumn id="2" xr3:uid="{4DA00975-3D71-433F-8683-8E8E476B3365}" name="contact_id"/>
+    <tableColumn id="3" xr3:uid="{9D6CCDB5-9ECC-4CA4-B082-1573C6060982}" name="contact" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="MySqlDefault" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2183,7 +2136,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2289,7 +2242,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2431,7 +2384,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2439,18 +2392,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D6808-8E6A-4A02-8E3A-5C18B8FA7BD8}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E63"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -2461,7 +2416,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2471,8 +2426,12 @@
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("Insert into Customer VALUES(",A1, ",", "'", B2, "'", ",", "'", C2, "');")</f>
+        <v>Insert into Customer VALUES(cid,'Bruce','Jones');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2482,8 +2441,12 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E63" si="0">_xlfn.CONCAT("Insert into Customer VALUES(",A2, ",", "'", B3, "'", ",", "'", C3, "');")</f>
+        <v>Insert into Customer VALUES(1,'Wendy','Smith');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2493,8 +2456,12 @@
       <c r="C4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(2,'William','Penn');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2504,8 +2471,12 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(3,'Joan','Arc');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2515,8 +2486,12 @@
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(4,'Albert','Einstein');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2526,8 +2501,12 @@
       <c r="C7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(5,'Marie','Currie');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2537,8 +2516,12 @@
       <c r="C8" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(6,'Margaret','Thatcher');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2548,8 +2531,12 @@
       <c r="C9" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(7,'John','Manchester');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2559,8 +2546,12 @@
       <c r="C10" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(8,'John','Doe');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2570,8 +2561,12 @@
       <c r="C11" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(9,'Jane','Same');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2581,8 +2576,12 @@
       <c r="C12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(10,'Tom','Smythe');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2592,8 +2591,12 @@
       <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(11,'Kate','Abbott');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2603,8 +2606,12 @@
       <c r="C14" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(12,'Bethune','Emily');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2614,8 +2621,12 @@
       <c r="C15" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(13,'Ovitt','Joanne');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2625,8 +2636,12 @@
       <c r="C16" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(14,'Flower','Daisy');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2636,8 +2651,12 @@
       <c r="C17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(15,'Dumber','Dumb');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2647,8 +2666,12 @@
       <c r="C18" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(16,'Samantha','Ovitt');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2658,8 +2681,12 @@
       <c r="C19" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(17,'Taylor','Bigam');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2669,8 +2696,12 @@
       <c r="C20" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(18,'Dudlee','Dudders');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2680,8 +2711,12 @@
       <c r="C21" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(19,'Foster','Dood');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2691,8 +2726,12 @@
       <c r="C22" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(20,'Lily','Snyder');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2702,8 +2741,12 @@
       <c r="C23" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(21,'Kat','Killinger');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2713,8 +2756,12 @@
       <c r="C24" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(22,'Luke','Skywalker');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2724,8 +2771,12 @@
       <c r="C25" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(23,'Road','Kill');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2735,8 +2786,12 @@
       <c r="C26" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(24,'Derek','Jeter');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2746,8 +2801,12 @@
       <c r="C27" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(25,'Pass','Go');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2757,8 +2816,12 @@
       <c r="C28" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(26,'Steve','Scuba');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2768,8 +2831,12 @@
       <c r="C29" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(27,'Mickey','Mouse');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2779,8 +2846,12 @@
       <c r="C30" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(28,'Chris','Jones');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2790,8 +2861,12 @@
       <c r="C31" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(29,'Mac','LeMore');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2801,8 +2876,12 @@
       <c r="C32" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(30,'Dag','Nabbit');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2812,8 +2891,12 @@
       <c r="C33" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(31,'William','Wonka');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2823,8 +2906,12 @@
       <c r="C34" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(32,'David','Jones');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2834,8 +2921,12 @@
       <c r="C35" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(33,'Santa','Claws');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2845,8 +2936,12 @@
       <c r="C36" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(34,'Johnny','Rocket');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2856,8 +2951,12 @@
       <c r="C37" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(35,'Michael','Hunt');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2867,8 +2966,12 @@
       <c r="C38" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(36,'Easter','Bunny');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2878,8 +2981,12 @@
       <c r="C39" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(37,'Smith','Timothy');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2889,8 +2996,12 @@
       <c r="C40" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(38,'Arts','Franklin');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2900,8 +3011,12 @@
       <c r="C41" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(39,'Caisse','Anna');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2911,8 +3026,12 @@
       <c r="C42" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(40,'Olivares','Eric');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2922,8 +3041,12 @@
       <c r="C43" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(41,'Sampson','Thomas');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2933,8 +3056,12 @@
       <c r="C44" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(42,'James','Boiben');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2944,8 +3071,12 @@
       <c r="C45" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(43,'Sally','Jane');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2955,8 +3086,12 @@
       <c r="C46" s="1" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(44,'Amanda','Fintz');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2966,8 +3101,12 @@
       <c r="C47" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(45,'Marc','Bartalone');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2977,8 +3116,12 @@
       <c r="C48" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(46,'Brian','Parker');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2988,8 +3131,12 @@
       <c r="C49" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(47,'Garth','Fitzgerald');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2999,8 +3146,12 @@
       <c r="C50" s="1" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(48,'Barbara','Martin');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3010,8 +3161,12 @@
       <c r="C51" s="1" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(49,'Homer','Reynolds');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3021,8 +3176,12 @@
       <c r="C52" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(50,'Nikola','Tesla');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3032,8 +3191,12 @@
       <c r="C53" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(51,'Sebastian','Alias');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3043,8 +3206,12 @@
       <c r="C54" s="1" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(52,'Jake','Johnson');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3054,8 +3221,12 @@
       <c r="C55" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(53,'Santa','Clause');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3065,8 +3236,12 @@
       <c r="C56" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(54,'Bruce','Jones');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3076,8 +3251,12 @@
       <c r="C57" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(55,'Guy','Getdown');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3087,8 +3266,12 @@
       <c r="C58" s="1" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(56,'Sung','Fugong');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3098,8 +3281,12 @@
       <c r="C59" s="1" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(57,'John','Brown');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3109,8 +3296,12 @@
       <c r="C60" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(58,'Peter','White');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3120,8 +3311,12 @@
       <c r="C61" s="1" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(59,'Josh','Green');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3131,8 +3326,12 @@
       <c r="C62" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(60,'Joan','Jacobs');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3141,6 +3340,10 @@
       </c>
       <c r="C63" s="1" t="s">
         <v>111</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>Insert into Customer VALUES(61,'Jennifer','Atrast');</v>
       </c>
     </row>
   </sheetData>
@@ -3156,18 +3359,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C6A90-760C-46DB-9248-5A5EF617662A}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>466</v>
       </c>
@@ -3184,7 +3389,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3201,7 +3406,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3218,7 +3423,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3235,7 +3440,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3252,7 +3457,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3269,7 +3474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3286,7 +3491,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3303,7 +3508,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3320,7 +3525,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3337,7 +3542,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3354,7 +3559,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3371,7 +3576,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3388,7 +3593,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3405,7 +3610,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3422,7 +3627,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3439,7 +3644,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3456,7 +3661,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3473,7 +3678,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3490,7 +3695,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3507,7 +3712,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3524,7 +3729,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3541,7 +3746,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3558,7 +3763,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3575,7 +3780,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3592,7 +3797,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3609,7 +3814,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3626,7 +3831,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3643,7 +3848,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3660,7 +3865,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3677,7 +3882,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3694,7 +3899,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3711,7 +3916,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -3728,7 +3933,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -3745,7 +3950,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -3762,7 +3967,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -3779,7 +3984,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -3796,7 +4001,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -3813,7 +4018,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -3830,7 +4035,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -3847,7 +4052,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -3864,7 +4069,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -3881,7 +4086,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -3898,7 +4103,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -3915,7 +4120,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -3932,7 +4137,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -3949,7 +4154,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -3966,7 +4171,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -3983,7 +4188,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4000,7 +4205,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4017,7 +4222,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4034,7 +4239,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4051,7 +4256,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4068,7 +4273,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4085,7 +4290,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4102,7 +4307,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4119,7 +4324,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4136,7 +4341,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4153,7 +4358,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4170,7 +4375,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4187,7 +4392,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4204,7 +4409,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4221,7 +4426,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4238,7 +4443,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4255,7 +4460,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4272,7 +4477,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4289,7 +4494,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4306,7 +4511,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4323,7 +4528,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4340,7 +4545,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4357,7 +4562,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4374,7 +4579,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4391,7 +4596,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4408,7 +4613,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4425,7 +4630,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4442,7 +4647,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4459,7 +4664,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4476,7 +4681,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4493,7 +4698,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4510,7 +4715,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4527,7 +4732,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4544,7 +4749,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4561,7 +4766,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4578,7 +4783,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4595,7 +4800,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4612,7 +4817,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4629,7 +4834,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -4646,7 +4851,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -4663,7 +4868,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -4680,7 +4885,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -4697,7 +4902,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -4714,7 +4919,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -4731,7 +4936,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -4748,7 +4953,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -4765,7 +4970,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -4782,7 +4987,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -4799,7 +5004,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -4816,7 +5021,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -4833,7 +5038,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -4850,7 +5055,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -4867,7 +5072,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -4884,7 +5089,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -4901,7 +5106,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -4918,7 +5123,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -4935,7 +5140,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -4952,7 +5157,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -4969,7 +5174,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -4986,7 +5191,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5003,7 +5208,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5020,7 +5225,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5037,7 +5242,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5054,7 +5259,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -5071,7 +5276,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -5088,7 +5293,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -5105,7 +5310,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -5122,7 +5327,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -5139,7 +5344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -5156,7 +5361,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -5173,7 +5378,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -5190,7 +5395,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -5207,7 +5412,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -5224,7 +5429,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -5241,7 +5446,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -5258,7 +5463,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -5275,7 +5480,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -5292,7 +5497,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -5309,7 +5514,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -5326,7 +5531,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -5343,7 +5548,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -5360,7 +5565,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -5377,7 +5582,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -5394,7 +5599,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -5424,15 +5629,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7725381-106C-4915-99FB-A72813155404}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>471</v>
       </c>
@@ -5440,7 +5647,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>111</v>
       </c>
@@ -5448,7 +5655,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>222</v>
       </c>
@@ -5456,7 +5663,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>333</v>
       </c>
@@ -5476,15 +5683,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06739214-C944-4DA3-91E7-ADDAFE6A6B1B}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>478</v>
       </c>
@@ -5492,7 +5701,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>11</v>
       </c>
@@ -5500,7 +5709,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>22</v>
       </c>
@@ -5508,7 +5717,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>33</v>
       </c>
@@ -5516,7 +5725,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>44</v>
       </c>
@@ -5524,7 +5733,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>55</v>
       </c>
@@ -5544,16 +5753,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{50476578-B27A-4E94-8071-91263880D8E6}">
   <dimension ref="A1:C142"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -5564,7 +5773,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5575,7 +5784,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5586,7 +5795,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5597,7 +5806,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5608,7 +5817,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5619,7 +5828,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5630,7 +5839,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5641,7 +5850,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5652,7 +5861,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5663,7 +5872,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>6</v>
       </c>
@@ -5674,7 +5883,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>7</v>
       </c>
@@ -5685,7 +5894,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>7</v>
       </c>
@@ -5696,7 +5905,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>8</v>
       </c>
@@ -5707,7 +5916,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>9</v>
       </c>
@@ -5718,7 +5927,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>9</v>
       </c>
@@ -5729,7 +5938,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>10</v>
       </c>
@@ -5740,7 +5949,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>10</v>
       </c>
@@ -5751,7 +5960,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>11</v>
       </c>
@@ -5762,7 +5971,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>12</v>
       </c>
@@ -5773,7 +5982,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
@@ -5784,7 +5993,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
@@ -5795,7 +6004,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>13</v>
       </c>
@@ -5806,7 +6015,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>14</v>
       </c>
@@ -5817,7 +6026,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>15</v>
       </c>
@@ -5828,7 +6037,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>15</v>
       </c>
@@ -5839,7 +6048,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>16</v>
       </c>
@@ -5850,7 +6059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>16</v>
       </c>
@@ -5861,7 +6070,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>17</v>
       </c>
@@ -5872,7 +6081,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>18</v>
       </c>
@@ -5883,7 +6092,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>18</v>
       </c>
@@ -5894,7 +6103,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>19</v>
       </c>
@@ -5905,7 +6114,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>19</v>
       </c>
@@ -5916,7 +6125,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>20</v>
       </c>
@@ -5927,7 +6136,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>21</v>
       </c>
@@ -5938,7 +6147,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>21</v>
       </c>
@@ -5949,7 +6158,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>22</v>
       </c>
@@ -5960,7 +6169,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>22</v>
       </c>
@@ -5971,7 +6180,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>23</v>
       </c>
@@ -5982,7 +6191,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>24</v>
       </c>
@@ -5993,7 +6202,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>24</v>
       </c>
@@ -6004,7 +6213,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>25</v>
       </c>
@@ -6015,7 +6224,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>25</v>
       </c>
@@ -6026,7 +6235,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>26</v>
       </c>
@@ -6037,7 +6246,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>27</v>
       </c>
@@ -6048,7 +6257,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>27</v>
       </c>
@@ -6059,7 +6268,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>28</v>
       </c>
@@ -6070,7 +6279,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>28</v>
       </c>
@@ -6081,7 +6290,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>29</v>
       </c>
@@ -6092,7 +6301,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>30</v>
       </c>
@@ -6103,7 +6312,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>30</v>
       </c>
@@ -6114,7 +6323,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>31</v>
       </c>
@@ -6125,7 +6334,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>31</v>
       </c>
@@ -6136,7 +6345,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>32</v>
       </c>
@@ -6147,7 +6356,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>33</v>
       </c>
@@ -6158,7 +6367,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>33</v>
       </c>
@@ -6169,7 +6378,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>34</v>
       </c>
@@ -6180,7 +6389,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>34</v>
       </c>
@@ -6191,7 +6400,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>35</v>
       </c>
@@ -6202,7 +6411,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>36</v>
       </c>
@@ -6213,7 +6422,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>36</v>
       </c>
@@ -6224,7 +6433,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>37</v>
       </c>
@@ -6235,7 +6444,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>37</v>
       </c>
@@ -6246,7 +6455,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>38</v>
       </c>
@@ -6257,7 +6466,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>39</v>
       </c>
@@ -6268,7 +6477,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>39</v>
       </c>
@@ -6279,7 +6488,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>40</v>
       </c>
@@ -6290,7 +6499,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>40</v>
       </c>
@@ -6301,7 +6510,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>41</v>
       </c>
@@ -6312,7 +6521,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>42</v>
       </c>
@@ -6323,7 +6532,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>42</v>
       </c>
@@ -6334,7 +6543,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>43</v>
       </c>
@@ -6345,7 +6554,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>43</v>
       </c>
@@ -6356,7 +6565,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>44</v>
       </c>
@@ -6367,7 +6576,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>45</v>
       </c>
@@ -6378,7 +6587,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>45</v>
       </c>
@@ -6389,7 +6598,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>46</v>
       </c>
@@ -6400,7 +6609,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>46</v>
       </c>
@@ -6411,7 +6620,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>47</v>
       </c>
@@ -6422,7 +6631,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>48</v>
       </c>
@@ -6433,7 +6642,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>48</v>
       </c>
@@ -6444,7 +6653,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>49</v>
       </c>
@@ -6455,7 +6664,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>49</v>
       </c>
@@ -6466,7 +6675,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>50</v>
       </c>
@@ -6477,7 +6686,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>51</v>
       </c>
@@ -6488,7 +6697,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>51</v>
       </c>
@@ -6499,7 +6708,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>52</v>
       </c>
@@ -6510,7 +6719,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>52</v>
       </c>
@@ -6521,7 +6730,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>53</v>
       </c>
@@ -6532,7 +6741,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>54</v>
       </c>
@@ -6543,7 +6752,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>54</v>
       </c>
@@ -6554,7 +6763,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>55</v>
       </c>
@@ -6565,7 +6774,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>55</v>
       </c>
@@ -6576,7 +6785,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>56</v>
       </c>
@@ -6587,7 +6796,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>57</v>
       </c>
@@ -6598,7 +6807,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>57</v>
       </c>
@@ -6609,7 +6818,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>58</v>
       </c>
@@ -6620,7 +6829,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>58</v>
       </c>
@@ -6631,7 +6840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>59</v>
       </c>
@@ -6642,7 +6851,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>60</v>
       </c>
@@ -6653,7 +6862,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>60</v>
       </c>
@@ -6664,7 +6873,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>61</v>
       </c>
@@ -6675,7 +6884,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>61</v>
       </c>
@@ -6686,7 +6895,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>62</v>
       </c>
@@ -6697,7 +6906,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>62</v>
       </c>
@@ -6708,7 +6917,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>2</v>
       </c>
@@ -6719,7 +6928,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>3</v>
       </c>
@@ -6730,7 +6939,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>4</v>
       </c>
@@ -6741,7 +6950,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>5</v>
       </c>
@@ -6752,7 +6961,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>6</v>
       </c>
@@ -6763,7 +6972,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>8</v>
       </c>
@@ -6774,7 +6983,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>9</v>
       </c>
@@ -6785,7 +6994,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10</v>
       </c>
@@ -6796,7 +7005,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>11</v>
       </c>
@@ -6807,7 +7016,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>12</v>
       </c>
@@ -6818,7 +7027,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>14</v>
       </c>
@@ -6829,7 +7038,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>15</v>
       </c>
@@ -6840,7 +7049,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>17</v>
       </c>
@@ -6851,7 +7060,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>18</v>
       </c>
@@ -6862,7 +7071,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>20</v>
       </c>
@@ -6873,7 +7082,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>21</v>
       </c>
@@ -6884,7 +7093,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>23</v>
       </c>
@@ -6895,7 +7104,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>24</v>
       </c>
@@ -6906,7 +7115,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>26</v>
       </c>
@@ -6917,7 +7126,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>27</v>
       </c>
@@ -6928,7 +7137,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>29</v>
       </c>
@@ -6939,7 +7148,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>30</v>
       </c>
@@ -6950,7 +7159,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>31</v>
       </c>
@@ -6961,7 +7170,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>32</v>
       </c>
@@ -6972,7 +7181,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>33</v>
       </c>
@@ -6983,7 +7192,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>35</v>
       </c>
@@ -6994,7 +7203,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>39</v>
       </c>
@@ -7005,7 +7214,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>36</v>
       </c>
@@ -7016,7 +7225,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>38</v>
       </c>
@@ -7027,7 +7236,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>41</v>
       </c>
@@ -7038,7 +7247,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>42</v>
       </c>
@@ -7049,7 +7258,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>44</v>
       </c>
@@ -7060,7 +7269,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>45</v>
       </c>
@@ -7071,7 +7280,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>46</v>
       </c>
@@ -7082,7 +7291,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>47</v>
       </c>
@@ -7093,7 +7302,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>49</v>
       </c>
@@ -7104,7 +7313,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>50</v>
       </c>
@@ -7126,18 +7335,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CE4CF-9D10-4EEB-8C84-79AA7F6D1940}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="M96" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E125"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>114</v>
       </c>
@@ -7148,7 +7359,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7158,8 +7369,12 @@
       <c r="C2" s="1" t="s">
         <v>479</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT("insert into CustomerContact VALUES(",A2, ",", B2, ", '", C2, "');")</f>
+        <v>insert into CustomerContact VALUES(1,11, 'BruceJones01@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -7169,8 +7384,12 @@
       <c r="C3" s="1" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E66" si="0">_xlfn.CONCAT("insert into CustomerContact VALUES(",A3, ",", B3, ", '", C3, "');")</f>
+        <v>insert into CustomerContact VALUES(1,33, '802-464-7770');</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -7180,8 +7399,12 @@
       <c r="C4" s="1" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(2,11, 'WendySmith@gmail.com');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -7191,8 +7414,12 @@
       <c r="C5" s="1" t="s">
         <v>482</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(2,44, '603-311-7935');</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3</v>
       </c>
@@ -7202,8 +7429,12 @@
       <c r="C6" s="1" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(3,11, 'WilliamPenn@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7213,8 +7444,12 @@
       <c r="C7" s="1" t="s">
         <v>484</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(3,55, '518-165-6424');</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7224,8 +7459,12 @@
       <c r="C8" s="1" t="s">
         <v>485</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(4,11, 'JoanArc@comcast.com');</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>4</v>
       </c>
@@ -7235,8 +7474,12 @@
       <c r="C9" s="1" t="s">
         <v>486</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(4,33, '401-111-4715');</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>5</v>
       </c>
@@ -7246,8 +7489,12 @@
       <c r="C10" s="1" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(5,11, 'AlbertEinstein@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>5</v>
       </c>
@@ -7257,8 +7504,12 @@
       <c r="C11" s="1" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(5,44, '207-671-4368');</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>6</v>
       </c>
@@ -7268,8 +7519,12 @@
       <c r="C12" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(6,11, 'MarieCurrie@gmail.com');</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7279,8 +7534,12 @@
       <c r="C13" s="1" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(6,55, '802-394-6040');</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>7</v>
       </c>
@@ -7290,8 +7549,12 @@
       <c r="C14" s="1" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(7,11, 'MargaretThatcher@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>7</v>
       </c>
@@ -7301,8 +7564,12 @@
       <c r="C15" s="1" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(7,33, '518-365-2880');</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>8</v>
       </c>
@@ -7312,8 +7579,12 @@
       <c r="C16" s="1" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(8,11, 'JohnManchester@comcast.com');</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
@@ -7323,8 +7594,12 @@
       <c r="C17" s="1" t="s">
         <v>494</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(8,44, '518-207-8436');</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
@@ -7334,8 +7609,12 @@
       <c r="C18" s="1" t="s">
         <v>495</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(9,11, 'JohnDoe@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>9</v>
       </c>
@@ -7345,8 +7624,12 @@
       <c r="C19" s="1" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(9,55, '603-164-4556');</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10</v>
       </c>
@@ -7356,8 +7639,12 @@
       <c r="C20" s="1" t="s">
         <v>497</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(10,11, 'JaneSame@gmail.com');</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -7367,8 +7654,12 @@
       <c r="C21" s="1" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(10,33, '207-490-1235');</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>11</v>
       </c>
@@ -7378,8 +7669,12 @@
       <c r="C22" s="1" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(11,11, 'TomSmythe@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>11</v>
       </c>
@@ -7389,8 +7684,12 @@
       <c r="C23" s="1" t="s">
         <v>500</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(11,44, '802-893-9896');</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>12</v>
       </c>
@@ -7400,8 +7699,12 @@
       <c r="C24" s="1" t="s">
         <v>501</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(12,11, 'KateAbbott@comcast.com');</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>12</v>
       </c>
@@ -7411,8 +7714,12 @@
       <c r="C25" s="1" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(12,55, '518-435-5994');</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>13</v>
       </c>
@@ -7422,8 +7729,12 @@
       <c r="C26" s="1" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(13,11, 'BethuneEmily@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>13</v>
       </c>
@@ -7433,8 +7744,12 @@
       <c r="C27" s="1" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(13,33, '802-249-8690');</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>14</v>
       </c>
@@ -7444,8 +7759,12 @@
       <c r="C28" s="1" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(14,11, 'OvittJoanne@gmail.com');</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>14</v>
       </c>
@@ -7455,8 +7774,12 @@
       <c r="C29" s="1" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(14,44, '802-770-8028');</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>15</v>
       </c>
@@ -7466,8 +7789,12 @@
       <c r="C30" s="1" t="s">
         <v>507</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(15,11, 'FlowerDaisy@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>15</v>
       </c>
@@ -7477,8 +7804,12 @@
       <c r="C31" s="1" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(15,55, '617-716-8413');</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>16</v>
       </c>
@@ -7488,8 +7819,12 @@
       <c r="C32" s="1" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(16,11, 'DumberDumb@comcast.com');</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>16</v>
       </c>
@@ -7499,8 +7834,12 @@
       <c r="C33" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(16,33, '617-912-3210');</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>17</v>
       </c>
@@ -7510,8 +7849,12 @@
       <c r="C34" s="1" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(17,11, 'OvittSamantha@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>17</v>
       </c>
@@ -7521,8 +7864,12 @@
       <c r="C35" s="1" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(17,44, '603-212-6677');</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>18</v>
       </c>
@@ -7532,8 +7879,12 @@
       <c r="C36" s="1" t="s">
         <v>513</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E36" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(18,11, 'TaylorBigam@gmail.com');</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>18</v>
       </c>
@@ -7543,8 +7894,12 @@
       <c r="C37" s="1" t="s">
         <v>514</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E37" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(18,55, '617-808-2708');</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>19</v>
       </c>
@@ -7554,8 +7909,12 @@
       <c r="C38" s="1" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E38" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(19,11, 'DudleeDudders@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>19</v>
       </c>
@@ -7565,8 +7924,12 @@
       <c r="C39" s="1" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E39" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(19,33, '609-750-6890');</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>20</v>
       </c>
@@ -7576,8 +7939,12 @@
       <c r="C40" s="1" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E40" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(20,11, 'FosterDood@comcast.com');</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>20</v>
       </c>
@@ -7587,8 +7954,12 @@
       <c r="C41" s="1" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E41" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(20,44, '775-207-8432');</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>21</v>
       </c>
@@ -7598,8 +7969,12 @@
       <c r="C42" s="1" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E42" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(21,11, 'LilySnyder@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>21</v>
       </c>
@@ -7609,8 +7984,12 @@
       <c r="C43" s="1" t="s">
         <v>520</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E43" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(21,55, '802-933-6060');</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>22</v>
       </c>
@@ -7620,8 +7999,12 @@
       <c r="C44" s="1" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E44" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(22,11, 'KatKillinger@gmail.com');</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>22</v>
       </c>
@@ -7631,8 +8014,12 @@
       <c r="C45" s="1" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E45" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(22,33, '802-897-4446');</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>23</v>
       </c>
@@ -7642,8 +8029,12 @@
       <c r="C46" s="1" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E46" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(23,11, 'LukeSkywalker@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>23</v>
       </c>
@@ -7653,8 +8044,12 @@
       <c r="C47" s="1" t="s">
         <v>524</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E47" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(23,44, '518-190-2914');</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>24</v>
       </c>
@@ -7664,8 +8059,12 @@
       <c r="C48" s="1" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E48" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(24,11, 'RoadKill@comcast.com');</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>24</v>
       </c>
@@ -7675,8 +8074,12 @@
       <c r="C49" s="1" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E49" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(24,55, '802-922-1305');</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>25</v>
       </c>
@@ -7686,8 +8089,12 @@
       <c r="C50" s="1" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E50" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(25,11, 'DerekJeter@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>25</v>
       </c>
@@ -7697,8 +8104,12 @@
       <c r="C51" s="1" t="s">
         <v>528</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E51" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(25,33, '518-184-2376');</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>26</v>
       </c>
@@ -7708,8 +8119,12 @@
       <c r="C52" s="1" t="s">
         <v>529</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E52" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(26,11, 'PassGo@gmail.com');</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>26</v>
       </c>
@@ -7719,8 +8134,12 @@
       <c r="C53" s="1" t="s">
         <v>530</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E53" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(26,44, '907-115-4492');</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>27</v>
       </c>
@@ -7730,8 +8149,12 @@
       <c r="C54" s="1" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E54" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(27,11, 'SteveScuba@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>27</v>
       </c>
@@ -7741,8 +8164,12 @@
       <c r="C55" s="1" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E55" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(27,55, '770-162-3074');</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>28</v>
       </c>
@@ -7752,8 +8179,12 @@
       <c r="C56" s="1" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E56" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(28,11, 'MickeyMouse@comcast.com');</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>28</v>
       </c>
@@ -7763,8 +8194,12 @@
       <c r="C57" s="1" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E57" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(28,33, '786-931-1660');</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>29</v>
       </c>
@@ -7774,8 +8209,12 @@
       <c r="C58" s="1" t="s">
         <v>535</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E58" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(29,11, 'ChrisJones@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>29</v>
       </c>
@@ -7785,8 +8224,12 @@
       <c r="C59" s="1" t="s">
         <v>536</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E59" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(29,44, '203-932-2566');</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>30</v>
       </c>
@@ -7796,8 +8239,12 @@
       <c r="C60" s="1" t="s">
         <v>537</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E60" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(30,11, 'MacLeMore@gmail.com');</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>30</v>
       </c>
@@ -7807,8 +8254,12 @@
       <c r="C61" s="1" t="s">
         <v>538</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E61" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(30,55, '907-332-5510');</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>31</v>
       </c>
@@ -7818,8 +8269,12 @@
       <c r="C62" s="1" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E62" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(31,11, 'DagNabbit@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>31</v>
       </c>
@@ -7829,8 +8284,12 @@
       <c r="C63" s="1" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E63" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(31,33, '859-579-9627');</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>32</v>
       </c>
@@ -7840,8 +8299,12 @@
       <c r="C64" s="1" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E64" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(32,11, 'WilliamWonka@comcast.com');</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>32</v>
       </c>
@@ -7851,8 +8314,12 @@
       <c r="C65" s="1" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E65" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(32,44, '307-251-1546');</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>33</v>
       </c>
@@ -7862,8 +8329,12 @@
       <c r="C66" s="1" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E66" t="str">
+        <f t="shared" si="0"/>
+        <v>insert into CustomerContact VALUES(33,11, 'DavidJones@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>33</v>
       </c>
@@ -7873,8 +8344,12 @@
       <c r="C67" s="1" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E67" t="str">
+        <f t="shared" ref="E67:E125" si="1">_xlfn.CONCAT("insert into CustomerContact VALUES(",A67, ",", B67, ", '", C67, "');")</f>
+        <v>insert into CustomerContact VALUES(33,55, '617-310-6630');</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>34</v>
       </c>
@@ -7884,8 +8359,12 @@
       <c r="C68" s="1" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E68" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(34,11, 'SantaClaws@gmail.com');</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>34</v>
       </c>
@@ -7895,8 +8374,12 @@
       <c r="C69" s="1" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E69" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(34,33, '617-237-1868');</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>35</v>
       </c>
@@ -7906,8 +8389,12 @@
       <c r="C70" s="1" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E70" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(35,11, 'JohnnyRocket@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>35</v>
       </c>
@@ -7917,8 +8404,12 @@
       <c r="C71" s="1" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E71" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(35,44, '913-206-7235');</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>36</v>
       </c>
@@ -7928,8 +8419,12 @@
       <c r="C72" s="1" t="s">
         <v>549</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E72" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(36,11, 'MichaelHunt@comcast.com');</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>36</v>
       </c>
@@ -7939,8 +8434,12 @@
       <c r="C73" s="1" t="s">
         <v>550</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E73" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(36,55, '714-948-1298');</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>37</v>
       </c>
@@ -7950,8 +8449,12 @@
       <c r="C74" s="1" t="s">
         <v>551</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E74" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(37,11, 'EasterBunny@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>37</v>
       </c>
@@ -7961,8 +8464,12 @@
       <c r="C75" s="1" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E75" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(37,33, '786-700-2553');</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>38</v>
       </c>
@@ -7972,8 +8479,12 @@
       <c r="C76" s="1" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E76" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(38,11, 'SmithTimothy@gmail.com');</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>38</v>
       </c>
@@ -7983,8 +8494,12 @@
       <c r="C77" s="1" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E77" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(38,44, '630-897-6330');</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>39</v>
       </c>
@@ -7994,8 +8509,12 @@
       <c r="C78" s="1" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E78" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(39,11, 'ArtsFranklin@fairpoint.com');</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>39</v>
       </c>
@@ -8005,8 +8524,12 @@
       <c r="C79" s="1" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E79" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(39,55, '802-731-7686');</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>40</v>
       </c>
@@ -8016,8 +8539,12 @@
       <c r="C80" s="1" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E80" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(40,11, 'CaisseAnna@comcast.com');</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>40</v>
       </c>
@@ -8027,8 +8554,12 @@
       <c r="C81" s="1" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E81" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(40,33, '203-270-8223');</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>41</v>
       </c>
@@ -8038,8 +8569,12 @@
       <c r="C82" s="1" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E82" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(41,11, 'OlivaresEric@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>41</v>
       </c>
@@ -8049,8 +8584,12 @@
       <c r="C83" s="1" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E83" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(41,44, '281-750-9152');</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>42</v>
       </c>
@@ -8060,8 +8599,12 @@
       <c r="C84" s="1" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E84" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(42,11, 'SampsonThomas@gmail.com');</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>42</v>
       </c>
@@ -8071,8 +8614,12 @@
       <c r="C85" s="1" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E85" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(42,55, '518-811-8639');</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>43</v>
       </c>
@@ -8082,8 +8629,12 @@
       <c r="C86" s="1" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E86" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(43,11, 'JamesBoiben@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>43</v>
       </c>
@@ -8093,8 +8644,12 @@
       <c r="C87" s="1" t="s">
         <v>564</v>
       </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E87" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(43,33, '281-594-3798');</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>44</v>
       </c>
@@ -8104,8 +8659,12 @@
       <c r="C88" s="1" t="s">
         <v>565</v>
       </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E88" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(44,11, 'SallyJane@gmail.com');</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>44</v>
       </c>
@@ -8115,8 +8674,12 @@
       <c r="C89" s="1" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E89" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(44,44, '203-503-4488');</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>45</v>
       </c>
@@ -8126,8 +8689,12 @@
       <c r="C90" s="1" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E90" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(45,11, 'AmandaFintz@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>45</v>
       </c>
@@ -8137,8 +8704,12 @@
       <c r="C91" s="1" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E91" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(45,55, '518-939-2205');</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>46</v>
       </c>
@@ -8148,8 +8719,12 @@
       <c r="C92" s="1" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E92" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(46,11, 'MarcBartalone@gmail.com');</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>46</v>
       </c>
@@ -8159,8 +8734,12 @@
       <c r="C93" s="1" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E93" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(46,33, '714-356-5110');</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>47</v>
       </c>
@@ -8170,8 +8749,12 @@
       <c r="C94" s="1" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E94" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(47,11, 'BrianParker@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>47</v>
       </c>
@@ -8181,8 +8764,12 @@
       <c r="C95" s="1" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E95" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(47,44, '425-711-6537');</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>48</v>
       </c>
@@ -8192,8 +8779,12 @@
       <c r="C96" s="1" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E96" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(48,11, 'GarthFitzgerald@gmail.com');</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>48</v>
       </c>
@@ -8203,8 +8794,12 @@
       <c r="C97" s="1" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E97" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(48,55, '802-196-7824');</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>49</v>
       </c>
@@ -8214,8 +8809,12 @@
       <c r="C98" s="1" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E98" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(49,11, 'BarbaraMartin@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>49</v>
       </c>
@@ -8225,8 +8824,12 @@
       <c r="C99" s="1" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E99" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(49,33, '203-996-5218');</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>50</v>
       </c>
@@ -8236,8 +8839,12 @@
       <c r="C100" s="1" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E100" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(50,11, 'HomerReynolds@gmail.com');</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>50</v>
       </c>
@@ -8247,8 +8854,12 @@
       <c r="C101" s="1" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E101" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(50,44, '217-929-2097');</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>51</v>
       </c>
@@ -8258,8 +8869,12 @@
       <c r="C102" s="1" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E102" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(51,11, 'NikolaTesla@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>51</v>
       </c>
@@ -8269,8 +8884,12 @@
       <c r="C103" s="1" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E103" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(51,55, '518-567-2896');</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>52</v>
       </c>
@@ -8280,8 +8899,12 @@
       <c r="C104" s="1" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E104" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(52,11, 'SebastianAlias@gmail.com');</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>52</v>
       </c>
@@ -8291,8 +8914,12 @@
       <c r="C105" s="1" t="s">
         <v>582</v>
       </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E105" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(52,33, '425-355-8046');</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>53</v>
       </c>
@@ -8302,8 +8929,12 @@
       <c r="C106" s="1" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E106" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(53,11, 'JakeJohnson@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>53</v>
       </c>
@@ -8313,8 +8944,12 @@
       <c r="C107" s="1" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E107" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(53,44, '802-150-7891');</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>54</v>
       </c>
@@ -8324,8 +8959,12 @@
       <c r="C108" s="1" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E108" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(54,11, 'SantaClause@gmail.com');</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>54</v>
       </c>
@@ -8335,8 +8974,12 @@
       <c r="C109" s="1" t="s">
         <v>586</v>
       </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E109" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(54,55, '701-889-8071');</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>55</v>
       </c>
@@ -8346,8 +8989,12 @@
       <c r="C110" s="1" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E110" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(55,11, 'BruceJones02@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>55</v>
       </c>
@@ -8357,8 +9004,12 @@
       <c r="C111" s="1" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E111" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(55,33, '802-386-1172');</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>56</v>
       </c>
@@ -8368,8 +9019,12 @@
       <c r="C112" s="1" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E112" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(56,11, 'GuyGetdown@gmail.com');</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>56</v>
       </c>
@@ -8379,8 +9034,12 @@
       <c r="C113" s="1" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E113" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(56,44, '714-871-8478');</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>57</v>
       </c>
@@ -8390,8 +9049,12 @@
       <c r="C114" s="1" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E114" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(57,11, 'SungFugong@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>57</v>
       </c>
@@ -8401,8 +9064,12 @@
       <c r="C115" s="1" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E115" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(57,55, '802-338-2844');</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>58</v>
       </c>
@@ -8412,8 +9079,12 @@
       <c r="C116" s="1" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E116" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(58,11, 'JohnBrown@gmail.com');</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>58</v>
       </c>
@@ -8423,8 +9094,12 @@
       <c r="C117" s="1" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E117" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(58,33, '804-450-2921');</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>59</v>
       </c>
@@ -8434,8 +9109,12 @@
       <c r="C118" s="1" t="s">
         <v>595</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E118" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(59,11, 'PeterWhite@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>59</v>
       </c>
@@ -8445,8 +9124,12 @@
       <c r="C119" s="1" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E119" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(59,44, '425-341-4402');</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>60</v>
       </c>
@@ -8456,8 +9139,12 @@
       <c r="C120" s="1" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E120" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(60,11, 'JoshGreen@gmail.com');</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>60</v>
       </c>
@@ -8467,8 +9154,12 @@
       <c r="C121" s="1" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E121" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(60,55, '518-459-9078');</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>61</v>
       </c>
@@ -8478,8 +9169,12 @@
       <c r="C122" s="1" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E122" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(61,11, 'JoanJacobs@yahoo.com');</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>61</v>
       </c>
@@ -8489,8 +9184,12 @@
       <c r="C123" s="1" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E123" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(61,33, '203-914-9322');</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>62</v>
       </c>
@@ -8500,8 +9199,12 @@
       <c r="C124" s="1" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E124" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(62,11, 'JenniferAtrast@gmail.com');</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>62</v>
       </c>
@@ -8510,6 +9213,10 @@
       </c>
       <c r="C125" s="1" t="s">
         <v>602</v>
+      </c>
+      <c r="E125" t="str">
+        <f t="shared" si="1"/>
+        <v>insert into CustomerContact VALUES(62,44, '804-768-8717');</v>
       </c>
     </row>
   </sheetData>

--- a/Excel Project Files/customer_data.xlsx
+++ b/Excel Project Files/customer_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\Project\Server-Side-Project\Excel Project Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EC0B8D-4E4A-4606-A1B8-F5C57AA409D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F832A0-763F-42E5-BF52-734B96DEFE84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8340" windowHeight="12360" firstSheet="1" activeTab="1" xr2:uid="{E702B18A-E539-4B3B-872E-9C4A8111F8E7}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{E702B18A-E539-4B3B-872E-9C4A8111F8E7}"/>
   </bookViews>
   <sheets>
     <sheet name="customer" sheetId="1" r:id="rId1"/>
@@ -2394,8 +2394,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{170D6808-8E6A-4A02-8E3A-5C18B8FA7BD8}">
   <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E63"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3359,7 +3359,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3C6A90-760C-46DB-9248-5A5EF617662A}">
   <dimension ref="A1:E132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -7337,8 +7337,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E5CE4CF-9D10-4EEB-8C84-79AA7F6D1940}">
   <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView topLeftCell="M96" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E125"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
